--- a/2.4.3/見積書.xlsx
+++ b/2.4.3/見積書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisa.kitano/PycharmProjects/aidemy-python-excel/2.4.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350B8B36-8BED-5543-8E8A-A2D28CC64033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D98BF-6DE3-D84E-B273-63C3AA448895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15780" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="15660" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="1" r:id="rId1"/>
@@ -462,73 +462,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +497,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +775,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -792,23 +792,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -846,25 +846,25 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="30" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -877,20 +877,20 @@
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -928,27 +928,27 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>6</v>
@@ -965,24 +965,24 @@
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>9</v>
@@ -1006,13 +1006,13 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
         <v>11</v>
@@ -1036,11 +1036,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
         <v>12</v>
@@ -1054,29 +1054,29 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="16" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
         <v>17</v>
@@ -1090,29 +1090,29 @@
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="28"/>
+      <c r="M11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1124,29 +1124,29 @@
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="28"/>
+      <c r="M12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1168,15 +1168,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="28"/>
+      <c r="M13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1214,28 +1214,28 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="33">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36">
         <f>N32</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="34" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1276,7 +1276,7 @@
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="30"/>
@@ -1285,19 +1285,19 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="29" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="29" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="16" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="30"/>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="31"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1312,7 +1312,7 @@
       <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="30"/>
@@ -1321,7 +1321,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="7">
         <v>30</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="30"/>
@@ -1364,7 +1364,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="7">
         <v>30</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="30"/>
@@ -1407,7 +1407,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="7">
         <v>40</v>
       </c>
@@ -1439,14 +1439,14 @@
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="9"/>
       <c r="K21" s="8"/>
       <c r="L21" s="12"/>
@@ -1465,14 +1465,14 @@
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="36"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="12"/>
@@ -1491,14 +1491,14 @@
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="36"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="9"/>
       <c r="K23" s="8"/>
       <c r="L23" s="12"/>
@@ -1517,14 +1517,14 @@
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="12"/>
@@ -1543,14 +1543,14 @@
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="36"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="9"/>
       <c r="K25" s="8"/>
       <c r="L25" s="12"/>
@@ -1569,14 +1569,14 @@
     </row>
     <row r="26" spans="1:24" ht="19.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="12"/>
@@ -1595,14 +1595,14 @@
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="36"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="9"/>
       <c r="K27" s="8"/>
       <c r="L27" s="12"/>
@@ -1621,14 +1621,14 @@
     </row>
     <row r="28" spans="1:24" ht="19.5" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="12"/>
@@ -1647,14 +1647,14 @@
     </row>
     <row r="29" spans="1:24" ht="19.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="9"/>
       <c r="K29" s="8"/>
       <c r="L29" s="12"/>
@@ -1681,10 +1681,10 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="31"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="13"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -1711,16 +1711,16 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="37">
+      <c r="K31" s="17"/>
+      <c r="L31" s="31">
         <v>0.1</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
-      <c r="O31" s="31"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1733,18 +1733,18 @@
     </row>
     <row r="32" spans="1:24" ht="19.5" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="31"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="14"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -1763,11 +1763,11 @@
     </row>
     <row r="33" spans="1:24" ht="19.5" customHeight="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1788,23 +1788,23 @@
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="40"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="21"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -1816,21 +1816,21 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="42"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="23"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -1842,21 +1842,21 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="42"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="23"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1868,21 +1868,21 @@
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="44"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="25"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -26933,6 +26933,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="A34:B37"/>
@@ -26947,51 +26992,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <dataValidations count="1">
